--- a/www.eia.gov/electricity/monthly/xls/table_1_02_e.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_02_e.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
-  <si>
-    <t>Table 1.2.E. Net Generation by Energy Source:  Residential Sector, 2014-October 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+  <si>
+    <t>Table 1.2.E. Net Generation by Energy Source:  Residential Sector, 2014-November 2016</t>
   </si>
   <si>
     <t>(Thousand Megawatthours)</t>
@@ -93,7 +93,7 @@
     <t>Year to Date</t>
   </si>
   <si>
-    <t>Rolling 12 Months Ending in October</t>
+    <t>Rolling 12 Months Ending in November</t>
   </si>
   <si>
     <t>See Glossary for definitions. Values for 2015 and prior years are final. Values for 2016 are preliminary.
@@ -992,7 +992,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1347,68 +1347,76 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="7">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B46" s="7">
-        <v>4212</v>
-      </c>
+      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B47" s="7">
-        <v>6012</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B48" s="7">
+        <v>6527</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
         <v>2016</v>
       </c>
-      <c r="B48" s="7">
-        <v>9134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="B49" s="7">
+        <v>9851</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B50" s="7">
-        <v>6748</v>
-      </c>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B51" s="7">
+        <v>6890</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
         <v>2016</v>
       </c>
-      <c r="B51" s="7">
-        <v>10121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="B52" s="7">
+        <v>10323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B53" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
